--- a/Project/DBStructute.xlsx
+++ b/Project/DBStructute.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjena\Desktop\Grievance Project\Project files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjena\Desktop\Git\Grievance-Redressal\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C040DD58-6166-43E9-9087-7F1EA2AD72A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ABF2EC-1E5C-4C30-8EAB-427D4971758B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
   <si>
     <t>username</t>
   </si>
@@ -33,21 +33,12 @@
     <t>password</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
     <t>phno</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>pid(PK)</t>
   </si>
   <si>
@@ -63,51 +54,21 @@
     <t>VARCHAR(100)</t>
   </si>
   <si>
-    <t>BOOLEAN</t>
-  </si>
-  <si>
     <t>UserInfo</t>
   </si>
   <si>
     <t>role</t>
   </si>
   <si>
-    <t>tid(PK)</t>
-  </si>
-  <si>
     <t>UserType</t>
   </si>
   <si>
-    <t>Dept</t>
-  </si>
-  <si>
-    <t>did(PK)</t>
-  </si>
-  <si>
     <t>tid(FK)</t>
   </si>
   <si>
-    <t>dname</t>
-  </si>
-  <si>
     <t>Technician</t>
   </si>
   <si>
-    <t>tname</t>
-  </si>
-  <si>
-    <t>did(FK)</t>
-  </si>
-  <si>
-    <t>Complaints</t>
-  </si>
-  <si>
-    <t>cid(PK)</t>
-  </si>
-  <si>
-    <t>ctime</t>
-  </si>
-  <si>
     <t>DATETIME</t>
   </si>
   <si>
@@ -123,15 +84,6 @@
     <t>pid(FK)</t>
   </si>
   <si>
-    <t>Progress</t>
-  </si>
-  <si>
-    <t>proid(PK)</t>
-  </si>
-  <si>
-    <t>proid(FK)</t>
-  </si>
-  <si>
     <t>startprog</t>
   </si>
   <si>
@@ -141,18 +93,9 @@
     <t>endprog</t>
   </si>
   <si>
-    <t>resolved</t>
-  </si>
-  <si>
     <t>Feedback</t>
   </si>
   <si>
-    <t>fid(PK)</t>
-  </si>
-  <si>
-    <t>cid(FK)</t>
-  </si>
-  <si>
     <t>feedback</t>
   </si>
   <si>
@@ -174,19 +117,97 @@
     <t>Product Owned</t>
   </si>
   <si>
-    <t>oid(PK)</t>
-  </si>
-  <si>
     <t>prodid(FK)</t>
   </si>
   <si>
-    <t>VARCHAR(10)</t>
-  </si>
-  <si>
     <t>VARCHAR(50)</t>
   </si>
   <si>
     <t>userstatus</t>
+  </si>
+  <si>
+    <t>ProductDefect</t>
+  </si>
+  <si>
+    <t>pdefid(PK)</t>
+  </si>
+  <si>
+    <t>CustomerDefect</t>
+  </si>
+  <si>
+    <t>cusdefid(PK)</t>
+  </si>
+  <si>
+    <t>VARCHAR(75)</t>
+  </si>
+  <si>
+    <t>ownid(PK)</t>
+  </si>
+  <si>
+    <t>ownid(FK)</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>deptname</t>
+  </si>
+  <si>
+    <t>deptid(PK)</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>roleid(PK)</t>
+  </si>
+  <si>
+    <t>complid(PK)</t>
+  </si>
+  <si>
+    <t>compltime</t>
+  </si>
+  <si>
+    <t>res_status</t>
+  </si>
+  <si>
+    <t>compl_status</t>
+  </si>
+  <si>
+    <t>techid(PK)</t>
+  </si>
+  <si>
+    <t>techname</t>
+  </si>
+  <si>
+    <t>deptid(FK)</t>
+  </si>
+  <si>
+    <t>fbackid(PK)</t>
+  </si>
+  <si>
+    <t>complid(FK)</t>
+  </si>
+  <si>
+    <t>INT(BOOLEAN)</t>
+  </si>
+  <si>
+    <t>techid(FK)</t>
+  </si>
+  <si>
+    <t>Complaint</t>
+  </si>
+  <si>
+    <t>prod_def</t>
+  </si>
+  <si>
+    <t>cus_def</t>
   </si>
 </sst>
 </file>
@@ -300,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -321,6 +342,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,56 +624,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:P29"/>
+  <dimension ref="A4:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1"/>
-    <col min="13" max="13" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" customWidth="1"/>
+    <col min="15" max="16" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="19" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="1"/>
       <c r="I5" s="19" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J5" s="10"/>
       <c r="L5" s="19" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M5" s="16"/>
       <c r="O5" s="19" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="P5" s="16"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="1"/>
@@ -664,145 +685,150 @@
       <c r="O6" s="17"/>
       <c r="P6" s="13"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="P8" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="J9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="C12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="F12" s="19" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="G12" s="16"/>
       <c r="I12" s="19" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J12" s="16"/>
       <c r="L12" s="19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M12" s="16"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O12" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="13"/>
@@ -810,161 +836,201 @@
       <c r="J13" s="13"/>
       <c r="L13" s="17"/>
       <c r="M13" s="13"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O13" s="17"/>
+      <c r="P13" s="13"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="21"/>
+      <c r="M17" s="20"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C20" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="F20" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="F21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="F16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="13" t="s">
+      <c r="G21" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C22" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F17" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="M17" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F18" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="C19" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="F19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
-      <c r="F20" s="11" t="s">
+      <c r="D23" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="F23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="L25" s="1"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>

--- a/Project/DBStructute.xlsx
+++ b/Project/DBStructute.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjena\Desktop\Git\Grievance-Redressal\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ABF2EC-1E5C-4C30-8EAB-427D4971758B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3ABF1A-15A4-45F1-AC23-A6631E07DE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>UserType</t>
   </si>
   <si>
-    <t>tid(FK)</t>
-  </si>
-  <si>
     <t>Technician</t>
   </si>
   <si>
@@ -208,6 +205,9 @@
   </si>
   <si>
     <t>cus_def</t>
+  </si>
+  <si>
+    <t>roleid(FK)</t>
   </si>
 </sst>
 </file>
@@ -626,7 +626,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -654,20 +656,20 @@
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="1"/>
       <c r="I5" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="10"/>
       <c r="L5" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M5" s="16"/>
       <c r="O5" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P5" s="16"/>
     </row>
@@ -693,25 +695,25 @@
         <v>5</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M7" s="13" t="s">
         <v>5</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P7" s="13" t="s">
         <v>5</v>
@@ -726,25 +728,25 @@
         <v>6</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>7</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M8" s="13" t="s">
         <v>5</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P8" s="13" t="s">
         <v>5</v>
@@ -758,19 +760,19 @@
         <v>6</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>5</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M9" s="13" t="s">
         <v>6</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P9" s="15" t="s">
         <v>5</v>
@@ -778,21 +780,21 @@
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>6</v>
@@ -800,25 +802,25 @@
     </row>
     <row r="12" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="16"/>
       <c r="I12" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J12" s="16"/>
       <c r="L12" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M12" s="16"/>
       <c r="O12" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P12" s="16"/>
     </row>
@@ -847,25 +849,25 @@
         <v>5</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J14" s="13" t="s">
         <v>5</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>5</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P14" s="13" t="s">
         <v>5</v>
@@ -873,31 +875,31 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>5</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>5</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P15" s="13" t="s">
         <v>5</v>
@@ -905,45 +907,45 @@
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L16" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="M16" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="O16" s="14" t="s">
-        <v>60</v>
-      </c>
       <c r="P16" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>17</v>
-      </c>
       <c r="I17" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>5</v>
@@ -953,7 +955,7 @@
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F18" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>5</v>
@@ -963,7 +965,7 @@
     </row>
     <row r="19" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>5</v>
@@ -975,34 +977,34 @@
       </c>
       <c r="D20" s="10"/>
       <c r="F20" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
       <c r="F21" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C22" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1013,18 +1015,18 @@
         <v>6</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F24" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.25">
